--- a/file_name.xlsx
+++ b/file_name.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Projetos\ArticleReview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5758262-F587-4B03-BDE7-E73D5178A78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B277C23-413A-404A-9775-9B6CD6EA03DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="file_name" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>All</t>
   </si>
@@ -60,11 +60,14 @@
   <si>
     <t>Both mediums</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -898,135 +901,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>2001</v>
+      </c>
+      <c r="B2">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>2002</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2003</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>2004</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="E5">
         <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>2005</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1035,458 +1053,512 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="K6">
+      <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
+        <v>2006</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>2007</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>2008</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>4</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>2010</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>2011</v>
+      </c>
+      <c r="B12">
         <v>8</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
+        <v>2012</v>
+      </c>
+      <c r="B13">
         <v>8</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
       <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>7</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="B14">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>10</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>14</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>2014</v>
+      </c>
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="K15">
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="L15">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>2015</v>
+      </c>
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
       <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>9</v>
       </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="H16">
+        <v>2</v>
       </c>
       <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
+        <v>2016</v>
+      </c>
+      <c r="B17">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
       <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
       <c r="E17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="K17">
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="L17">
         <v>13</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>3</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18">
         <v>14</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
       <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>6</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>7</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="K18">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="L18">
         <v>13</v>
       </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>2018</v>
+      </c>
+      <c r="B19">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>15</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>11</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="K19">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>26</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>22</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="K20">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>29</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21">
         <v>55</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>27</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>29</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>22</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="K21">
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>44</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22">
         <v>63</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>29</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>26</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>8</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>29</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>24</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
       </c>
       <c r="H22">
         <v>4</v>
       </c>
       <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="L22">
         <v>48</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>13</v>
       </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
+        <v>2022</v>
+      </c>
+      <c r="B23">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>14</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
       <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9</v>
       </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>28</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>4</v>
       </c>
     </row>
